--- a/api/download_pdf_annual_report_2/merged_data.xlsx
+++ b/api/download_pdf_annual_report_2/merged_data.xlsx
@@ -28,10 +28,10 @@
     <t>pdf_url</t>
   </si>
   <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>平安银行</t>
+    <t>000538</t>
+  </si>
+  <si>
+    <t>云南白药</t>
   </si>
   <si>
     <t>2020年</t>
@@ -55,19 +55,19 @@
     <t>2017年</t>
   </si>
   <si>
-    <t>http://static.cninfo.com.cn/finalpage/2021-02-02/1209224370.PDF</t>
-  </si>
-  <si>
-    <t>http://static.cninfo.com.cn/finalpage/2020-02-14/1207305488.PDF</t>
-  </si>
-  <si>
-    <t>http://static.cninfo.com.cn/finalpage/2022-03-10/1212533413.PDF</t>
-  </si>
-  <si>
-    <t>http://static.cninfo.com.cn/finalpage/2019-03-07/1205881066.PDF</t>
-  </si>
-  <si>
-    <t>http://static.cninfo.com.cn/finalpage/2018-03-15/1204477157.PDF</t>
+    <t>http://static.cninfo.com.cn/finalpage/2021-03-27/1209463046.PDF</t>
+  </si>
+  <si>
+    <t>http://static.cninfo.com.cn/finalpage/2020-03-27/1207410745.PDF</t>
+  </si>
+  <si>
+    <t>http://static.cninfo.com.cn/finalpage/2022-03-26/1212688576.PDF</t>
+  </si>
+  <si>
+    <t>http://static.cninfo.com.cn/finalpage/2019-03-22/1205925083.PDF</t>
+  </si>
+  <si>
+    <t>http://static.cninfo.com.cn/finalpage/2018-04-12/1204617005.PDF</t>
   </si>
 </sst>
 </file>

--- a/api/download_pdf_annual_report_2/merged_data.xlsx
+++ b/api/download_pdf_annual_report_2/merged_data.xlsx
@@ -28,10 +28,10 @@
     <t>pdf_url</t>
   </si>
   <si>
-    <t>000538</t>
-  </si>
-  <si>
-    <t>云南白药</t>
+    <t>603369</t>
+  </si>
+  <si>
+    <t>今世缘</t>
   </si>
   <si>
     <t>2020年</t>
@@ -55,19 +55,19 @@
     <t>2017年</t>
   </si>
   <si>
-    <t>http://static.cninfo.com.cn/finalpage/2021-03-27/1209463046.PDF</t>
-  </si>
-  <si>
-    <t>http://static.cninfo.com.cn/finalpage/2020-03-27/1207410745.PDF</t>
-  </si>
-  <si>
-    <t>http://static.cninfo.com.cn/finalpage/2022-03-26/1212688576.PDF</t>
-  </si>
-  <si>
-    <t>http://static.cninfo.com.cn/finalpage/2019-03-22/1205925083.PDF</t>
-  </si>
-  <si>
-    <t>http://static.cninfo.com.cn/finalpage/2018-04-12/1204617005.PDF</t>
+    <t>http://static.cninfo.com.cn/finalpage/2021-04-19/1209718345.PDF</t>
+  </si>
+  <si>
+    <t>http://static.cninfo.com.cn/finalpage/2020-04-29/1207670840.PDF</t>
+  </si>
+  <si>
+    <t>http://static.cninfo.com.cn/finalpage/2022-04-16/1212941015.PDF</t>
+  </si>
+  <si>
+    <t>http://static.cninfo.com.cn/finalpage/2019-04-13/1206016767.PDF</t>
+  </si>
+  <si>
+    <t>http://static.cninfo.com.cn/finalpage/2018-04-28/1204829864.PDF</t>
   </si>
 </sst>
 </file>
